--- a/programming/implementatie/acceptatie_test_oefening.xlsx
+++ b/programming/implementatie/acceptatie_test_oefening.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
   <si>
     <t>Functionaliteit</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>Als je naar de webapplicatie gaat klikt u op overons boven in beeld</t>
+  </si>
+  <si>
+    <t>inloggen</t>
+  </si>
+  <si>
+    <t>Inloggen als redacteur</t>
+  </si>
+  <si>
+    <t>Een inlog overzicht</t>
+  </si>
+  <si>
+    <t>Als u de webpagina opent klikt u op inloggen hierna vul bij gebruikersnaam redacteur in en bij wachtwoord welkom1 en klik op verzenden nu moet u een inlog overzicht zien</t>
   </si>
 </sst>
 </file>
@@ -394,6 +406,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -412,49 +493,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -469,9 +514,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -480,36 +522,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G6"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,169 +815,174 @@
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
     <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="49" t="s">
+      <c r="J1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="K1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-    </row>
-    <row r="4" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="30"/>
+    </row>
+    <row r="4" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="24"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="33"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="27"/>
-    </row>
-    <row r="6" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="22"/>
+    </row>
+    <row r="6" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="27"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="22"/>
+    </row>
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="27"/>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="22"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -982,23 +999,23 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="2"/>
+      <c r="M8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="2"/>
+      <c r="O8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1007,71 +1024,71 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>6</v>
       </c>
@@ -1093,62 +1110,62 @@
       <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
@@ -1172,62 +1189,62 @@
       <c r="A27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
     </row>
     <row r="28" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
@@ -1246,28 +1263,116 @@
       </c>
       <c r="G32" s="3"/>
     </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="26"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="33"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B7:G7"/>
+  <mergeCells count="36">
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="K5:P5"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B31:G31"/>
@@ -1277,6 +1382,26 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1294,355 +1419,365 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
-      <c r="I1" s="31" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="I1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="I3" s="36" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="I3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="I4" s="40" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="I4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="43"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="42"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="I5" s="40" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="I5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="42"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="I6" s="40" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
+      <c r="I6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="43"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="42"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
-      <c r="I7" s="40" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+      <c r="I7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="43"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="45" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="45" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="I8" s="44" t="s">
+      <c r="G8" s="17"/>
+      <c r="I8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45" t="s">
+      <c r="K8" s="16"/>
+      <c r="L8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="45" t="s">
+      <c r="M8" s="16"/>
+      <c r="N8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="47"/>
+      <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="45" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="45" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="47"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="45" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="45" t="s">
+      <c r="E24" s="16"/>
+      <c r="F24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="47"/>
+      <c r="G24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B19:G19"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="J1:O1"/>
     <mergeCell ref="I2:O2"/>
@@ -1657,16 +1792,6 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
